--- a/pred_ohlcv/54_21/2020-01-12 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LINK ohlcv.xlsx
@@ -2966,7 +2966,7 @@
         <v>8619.065102692142</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>8529.165102692143</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>6764.803302692143</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7864.803302692143</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8041.173602692143</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8351.050302692141</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>8453.771002692141</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>8458.771002692141</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>9455.498402692141</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>15455.49840269214</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>4854.629588042461</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3597.412588042461</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5064.756088042461</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5264.756088042461</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5431.424288042461</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>16966.66272643838</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>22798.75242643838</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>29691.30232643837</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>29513.64732643837</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>28518.22702643837</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>33198.23502643837</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>29166.89472643837</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>31507.87962643837</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>24676.61032643837</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>24083.71402643837</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>24452.63442643837</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24113.89392643837</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>22164.35572643837</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>19702.24892643837</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>20234.51882643837</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>19150.57162643837</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>19270.75122643837</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>17817.60632643837</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>17818.60632643837</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16668.52252643837</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>21973.19452643836</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>23286.82262643837</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>22362.16432643836</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>22385.73642643837</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>22282.25202643836</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-77038.1652490018</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-76037.6533490018</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-74938.07274900182</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-79056.51743995237</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LINK ohlcv.xlsx
@@ -4734,7 +4734,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>11577.82272643837</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>16966.66272643838</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>22798.75242643838</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>29691.30232643837</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>29513.64732643837</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>28518.22702643837</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>33198.23502643837</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>29254.25442643837</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>24676.61032643837</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>24083.71402643837</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>24452.63442643837</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>24113.89392643837</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>22164.35572643837</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>19702.24892643837</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>20234.51882643837</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>19150.57162643837</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>19270.75122643837</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>19324.96092643837</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>17817.60632643837</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>17818.60632643837</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>16668.52252643837</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>21973.19452643836</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>26155.46782643837</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>23286.82262643837</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>22456.44662643837</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>22388.66312643836</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>22362.16432643836</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-75911.6533490018</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-74938.07274900182</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-73855.91664900183</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-73855.91664900183</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-73635.22524900183</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-75707.74110868768</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-75832.85170868768</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-79380.05750868768</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-78658.54090868768</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-78663.56190868767</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-77587.47350868768</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-77633.70270868768</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-77959.08350868768</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-78117.84750868767</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-79036.59370868767</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-79438.66960868765</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-79785.93143995237</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-79665.75183995237</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-79056.51743995237</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
